--- a/AAII_Financials/Quarterly/RXRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RXRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="92">
   <si>
     <t>RXRX</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,31 +665,32 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,17 +709,20 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E8" s="3">
         <v>2600</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
@@ -737,8 +741,11 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -766,8 +773,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -795,8 +805,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,17 +821,18 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E12" s="3">
         <v>24000</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,8 +851,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,8 +883,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -895,16 +915,19 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>100</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
+      <c r="E15" s="3">
+        <v>100</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
@@ -924,8 +947,11 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,17 +960,18 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E17" s="3">
         <v>33000</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
       </c>
@@ -963,17 +990,20 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-30400</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
@@ -992,8 +1022,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,16 +1038,17 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1034,17 +1068,20 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-29100</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1063,17 +1100,20 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,17 +1132,20 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-43400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-30700</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1121,8 +1164,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1150,8 +1196,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,17 +1228,20 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-43400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-30700</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1208,17 +1260,20 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-43400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-30700</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1237,8 +1292,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,8 +1324,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,8 +1356,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1388,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,16 +1420,19 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1382,17 +1452,20 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-43400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-30700</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,8 +1484,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,17 +1516,20 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-43400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-30700</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1469,22 +1548,25 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1503,8 +1585,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1601,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,17 +1615,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>632700</v>
+      </c>
+      <c r="E41" s="3">
         <v>214100</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1558,8 +1645,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1587,17 +1677,20 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1616,8 +1709,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1645,17 +1741,20 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E45" s="3">
         <v>7700</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1674,17 +1773,20 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>647600</v>
+      </c>
+      <c r="E46" s="3">
         <v>221800</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,8 +1805,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1732,17 +1837,20 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E48" s="3">
         <v>44600</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1761,17 +1869,20 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E49" s="3">
         <v>2400</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1790,8 +1901,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +1933,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,17 +1965,20 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
         <v>3100</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,8 +1997,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,17 +2029,20 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>698600</v>
+      </c>
+      <c r="E54" s="3">
         <v>271900</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,8 +2061,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2077,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,17 +2091,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E57" s="3">
         <v>3100</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1990,17 +2121,20 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E58" s="3">
         <v>2100</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,17 +2153,20 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E59" s="3">
         <v>21600</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2048,17 +2185,20 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E60" s="3">
         <v>26900</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2077,17 +2217,20 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E61" s="3">
         <v>10300</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2106,17 +2249,20 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E62" s="3">
         <v>19500</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2135,8 +2281,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2313,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2345,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,17 +2377,20 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E66" s="3">
         <v>56700</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2251,8 +2409,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2425,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2455,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,17 +2487,20 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
         <v>448300</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
@@ -2351,8 +2519,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,17 +2551,20 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-287700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-244300</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2409,8 +2583,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2615,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2647,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,17 +2679,20 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>642700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-233000</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,8 +2711,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,22 +2743,25 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2588,17 +2780,20 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-43400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-30700</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2812,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,17 +2828,18 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E83" s="3">
         <v>1400</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2659,8 +2858,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +2890,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +2922,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +2954,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +2986,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,17 +3018,20 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-30800</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2833,8 +3050,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,17 +3066,18 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19400</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2875,8 +3096,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3128,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,17 +3160,20 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19400</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2962,8 +3192,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,8 +3208,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3004,8 +3238,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3270,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3302,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,17 +3334,20 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>463700</v>
+      </c>
+      <c r="E100" s="3">
         <v>2100</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3366,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3149,17 +3398,20 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>423800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-48000</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3176,6 +3428,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RXRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RXRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="92">
   <si>
     <t>RXRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,39 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
+      <c r="G7" s="2">
+        <v>44012</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
@@ -712,8 +714,11 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -721,13 +726,13 @@
         <v>2500</v>
       </c>
       <c r="E8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F8" s="3">
         <v>2600</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+      <c r="G8" s="3">
+        <v>200</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -744,8 +749,11 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -776,8 +784,11 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -808,8 +819,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -822,22 +836,23 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E12" s="3">
         <v>29500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>24000</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
+      <c r="G12" s="3">
+        <v>13200</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -854,8 +869,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -886,31 +904,34 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -918,8 +939,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +953,8 @@
       <c r="E15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
+      <c r="F15" s="3">
+        <v>100</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -950,8 +974,11 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -961,22 +988,23 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E17" s="3">
         <v>43500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>33000</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+      <c r="G17" s="3">
+        <v>18400</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -993,22 +1021,25 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-47300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-41000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-30400</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+      <c r="G18" s="3">
+        <v>-18200</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1025,8 +1056,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1039,8 +1073,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1048,13 +1083,13 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-300</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1071,20 +1106,23 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-38600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-29100</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1103,22 +1141,25 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>2500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3">
+        <v>400</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1135,22 +1176,25 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-47400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-43400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-30700</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+      <c r="G23" s="3">
+        <v>-18900</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1167,8 +1211,11 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1199,8 +1246,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1231,22 +1281,25 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-47400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-43400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-30700</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+      <c r="G26" s="3">
+        <v>-18900</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1263,22 +1316,25 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-47400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-43400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-30700</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+      <c r="G27" s="3">
+        <v>-18900</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1295,8 +1351,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1327,8 +1386,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1359,8 +1421,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1391,8 +1456,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1423,8 +1491,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1432,13 +1503,13 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>300</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1455,22 +1526,25 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-47400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-43400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-30700</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+      <c r="G33" s="3">
+        <v>-18900</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1487,8 +1561,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1519,22 +1596,25 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-47400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-43400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-30700</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+      <c r="G35" s="3">
+        <v>-18900</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1551,27 +1631,30 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
+      <c r="G38" s="2">
+        <v>44012</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
@@ -1588,8 +1671,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1602,8 +1688,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1616,20 +1703,21 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>394700</v>
+      </c>
+      <c r="E41" s="3">
         <v>632700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>214100</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,31 +1736,34 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>184200</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1680,20 +1771,23 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1712,8 +1806,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1744,20 +1841,23 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E45" s="3">
         <v>14800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7700</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1776,20 +1876,23 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600900</v>
+      </c>
+      <c r="E46" s="3">
         <v>647600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>221800</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1808,8 +1911,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1840,20 +1946,23 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E48" s="3">
         <v>48500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>44600</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1872,8 +1981,11 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1881,11 +1993,11 @@
         <v>2300</v>
       </c>
       <c r="E49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F49" s="3">
         <v>2400</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1904,8 +2016,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1936,8 +2051,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1968,20 +2086,23 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3100</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2000,8 +2121,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2032,20 +2156,23 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>658600</v>
+      </c>
+      <c r="E54" s="3">
         <v>698600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>271900</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2064,8 +2191,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2078,8 +2208,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2092,20 +2223,21 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E57" s="3">
         <v>3200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3100</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,20 +2256,23 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
         <v>3100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2100</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2156,20 +2291,23 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E59" s="3">
         <v>23200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21600</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,20 +2326,23 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E60" s="3">
         <v>29500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>26900</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2220,20 +2361,23 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>700</v>
+      </c>
+      <c r="E61" s="3">
         <v>9400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10300</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2252,20 +2396,23 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E62" s="3">
         <v>16900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>19500</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2284,8 +2431,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2316,8 +2466,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2348,8 +2501,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2380,20 +2536,23 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E66" s="3">
         <v>55900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>56700</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2571,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2426,8 +2588,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2458,8 +2621,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2490,8 +2656,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2499,11 +2668,11 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>448300</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
@@ -2522,8 +2691,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2554,20 +2726,23 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-335100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-287700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-244300</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2586,8 +2761,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2618,8 +2796,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2650,8 +2831,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2682,20 +2866,23 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>599000</v>
+      </c>
+      <c r="E76" s="3">
         <v>642700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-233000</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2714,8 +2901,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2746,27 +2936,30 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
+      <c r="G80" s="2">
+        <v>44012</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
@@ -2783,22 +2976,25 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-47400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-43400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-30700</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+      <c r="G81" s="3">
+        <v>-18900</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2815,8 +3011,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2829,20 +3028,21 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E83" s="3">
         <v>2300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1400</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +3061,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2893,8 +3096,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2925,8 +3131,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2957,8 +3166,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2989,8 +3201,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3021,20 +3236,23 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-33700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-30800</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3053,8 +3271,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3067,20 +3288,21 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19400</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3099,8 +3321,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3131,8 +3356,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3163,20 +3391,23 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-193900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19400</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3195,8 +3426,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3209,8 +3443,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3241,8 +3476,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3273,8 +3511,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3305,8 +3546,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3337,20 +3581,23 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E100" s="3">
         <v>463700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2100</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3369,8 +3616,11 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3401,20 +3651,23 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-238000</v>
+      </c>
+      <c r="E102" s="3">
         <v>423800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-48000</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3431,6 +3684,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RXRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RXRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="92">
   <si>
     <t>RXRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,47 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -717,29 +718,35 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2500</v>
+        <v>5300</v>
       </c>
       <c r="E8" s="3">
         <v>2500</v>
       </c>
       <c r="F8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H8" s="3">
         <v>2600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -752,13 +759,19 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>7800</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -787,13 +800,19 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>-2500</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -822,8 +841,14 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -837,29 +862,31 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>46000</v>
+      </c>
+      <c r="F12" s="3">
         <v>33200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>29500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>24000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>13200</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -872,8 +899,14 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,20 +940,26 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>800</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -933,17 +972,23 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,11 +1001,11 @@
       <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
+      <c r="G15" s="3">
+        <v>100</v>
+      </c>
+      <c r="H15" s="3">
+        <v>100</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -977,8 +1022,14 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -989,29 +1040,31 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>61300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>67500</v>
+      </c>
+      <c r="F17" s="3">
         <v>49800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>43500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>33000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>18400</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1024,29 +1077,35 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-47300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-41000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-30400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-18200</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1059,8 +1118,14 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1074,29 +1139,31 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1109,26 +1176,32 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-62700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-44800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-38600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-29100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,29 +1217,35 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2500</v>
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
       </c>
       <c r="G22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H22" s="3">
+        <v>200</v>
+      </c>
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1179,29 +1258,35 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-64900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-47400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-43400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-30700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-18900</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1214,8 +1299,14 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1249,8 +1340,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1284,29 +1381,35 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-64900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-47400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-43400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-30700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-18900</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1319,29 +1422,35 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-64900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-47400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-43400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-30700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-18900</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1354,8 +1463,14 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1389,8 +1504,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1424,8 +1545,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1459,8 +1586,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1494,29 +1627,35 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1529,29 +1668,35 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-64900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-47400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-43400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-30700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-18900</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1564,8 +1709,14 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1599,29 +1750,35 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-64900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-47400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-43400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-30700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-18900</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1634,34 +1791,40 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1674,8 +1837,14 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1689,8 +1858,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1704,26 +1875,28 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>507900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>285100</v>
+      </c>
+      <c r="F41" s="3">
         <v>394700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>632700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>214100</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1739,20 +1912,26 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>83200</v>
+      </c>
+      <c r="E42" s="3">
+        <v>231400</v>
+      </c>
+      <c r="F42" s="3">
         <v>184200</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1765,35 +1944,41 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F43" s="3">
         <v>2300</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1809,8 +1994,14 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1844,26 +2035,32 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F45" s="3">
         <v>19700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>14800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>7700</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,26 +2076,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>619500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>534700</v>
+      </c>
+      <c r="F46" s="3">
         <v>600900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>647600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>221800</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1914,8 +2117,14 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1949,26 +2158,32 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>64700</v>
+      </c>
+      <c r="F48" s="3">
         <v>55400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>48500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>44600</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1984,26 +2199,32 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F49" s="3">
         <v>2300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2400</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2240,14 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2054,8 +2281,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2089,26 +2322,32 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>8700</v>
       </c>
       <c r="E52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>3100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2363,14 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2159,26 +2404,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>734300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>610300</v>
+      </c>
+      <c r="F54" s="3">
         <v>658600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>698600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>271900</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,8 +2445,14 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2209,8 +2466,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2224,26 +2483,28 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F57" s="3">
         <v>6300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3100</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2259,8 +2520,14 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2268,17 +2535,17 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
         <v>3100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2294,26 +2561,32 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>81500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>43700</v>
+      </c>
+      <c r="F59" s="3">
         <v>36500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>23200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>21600</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2329,26 +2602,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>85700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>46700</v>
+      </c>
+      <c r="F60" s="3">
         <v>42900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>29500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>26900</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2364,26 +2643,32 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>600</v>
+      </c>
+      <c r="F61" s="3">
         <v>700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>9400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>10300</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2399,26 +2684,32 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>154400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>20100</v>
+      </c>
+      <c r="F62" s="3">
         <v>16000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>16900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>19500</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2434,8 +2725,14 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2469,8 +2766,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2504,8 +2807,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2539,26 +2848,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>240800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>67400</v>
+      </c>
+      <c r="F66" s="3">
         <v>59600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>55900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>56700</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2574,8 +2889,14 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2589,8 +2910,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2624,8 +2947,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2659,8 +2988,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2671,14 +3006,14 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>448300</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2694,8 +3029,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2729,26 +3070,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-456100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-400100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-335100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-287700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-244300</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2764,8 +3111,14 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2799,8 +3152,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2834,8 +3193,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2869,26 +3234,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>493600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>542900</v>
+      </c>
+      <c r="F76" s="3">
         <v>599000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>642700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-233000</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2904,8 +3275,14 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2939,34 +3316,40 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2979,29 +3362,35 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-64900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-47400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-43400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-30700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-18900</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3014,8 +3403,14 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3029,26 +3424,28 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F83" s="3">
         <v>2400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>2300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>1400</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3064,8 +3461,14 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3099,8 +3502,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3134,8 +3543,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3169,8 +3584,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3204,8 +3625,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3239,26 +3666,32 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-33000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-33700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-30800</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3274,8 +3707,14 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3289,26 +3728,28 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-9700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-6200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-19400</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3324,8 +3765,14 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3359,8 +3806,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3394,26 +3847,32 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>143300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-193900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-6200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-19400</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3429,8 +3888,14 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3444,8 +3909,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3479,8 +3946,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3514,8 +3987,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3549,8 +4028,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3584,26 +4069,32 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-11100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>463700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>2100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3619,8 +4110,14 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3654,26 +4151,32 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>222800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-109600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-238000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>423800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-48000</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3687,6 +4190,12 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RXRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RXRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="92">
   <si>
     <t>RXRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,51 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -724,16 +725,19 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E8" s="3">
         <v>5300</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2500</v>
       </c>
       <c r="F8" s="3">
         <v>2500</v>
@@ -742,14 +746,14 @@
         <v>2500</v>
       </c>
       <c r="H8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I8" s="3">
         <v>2600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -765,17 +769,20 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E9" s="3">
         <v>7800</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
@@ -806,17 +813,20 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E10" s="3">
         <v>-2500</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
@@ -847,8 +857,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -864,32 +877,33 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E12" s="3">
         <v>32400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>46000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>33200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>29500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>24000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>13200</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -905,8 +919,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -946,23 +963,26 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -978,8 +998,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -987,8 +1007,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1007,8 +1030,8 @@
       <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
+      <c r="I15" s="3">
+        <v>100</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -1028,8 +1051,11 @@
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1042,32 +1068,33 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>73900</v>
+      </c>
+      <c r="E17" s="3">
         <v>61300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>67500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>49800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>43500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>33000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18400</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1083,32 +1110,35 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-66200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-56000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-65000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-47300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-41000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-30400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-18200</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1124,8 +1154,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1141,16 +1174,17 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
@@ -1159,14 +1193,14 @@
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1182,29 +1216,32 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-62800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-53200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-62700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-44800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-38600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-29100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,32 +1260,35 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,32 +1304,35 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-65600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-56000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-64900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-47400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-43400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-30700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-18900</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1305,8 +1348,11 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1346,8 +1392,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1387,32 +1436,35 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-65600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-56000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-64900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-47400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-43400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-30700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-18900</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1428,32 +1480,35 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-65600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-56000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-64900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-47400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-43400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-30700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-18900</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1469,8 +1524,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1510,8 +1568,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1551,8 +1612,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1592,8 +1656,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1633,16 +1700,19 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
@@ -1651,14 +1721,14 @@
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1674,32 +1744,35 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-65600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-56000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-64900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-47400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-43400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-30700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-18900</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1715,8 +1788,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1756,32 +1832,35 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-65600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-56000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-64900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-47400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-43400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-30700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-18900</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1797,37 +1876,40 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1843,8 +1925,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1860,8 +1945,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1877,29 +1963,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>453900</v>
+      </c>
+      <c r="E41" s="3">
         <v>507900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>285100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>394700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>632700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>214100</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1918,23 +2005,26 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>61600</v>
+      </c>
+      <c r="E42" s="3">
         <v>83200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>231400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>184200</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1950,8 +2040,8 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -1959,29 +2049,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E43" s="3">
         <v>11400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2300</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2000,8 +2093,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2041,29 +2137,32 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E45" s="3">
         <v>17000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7700</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2082,29 +2181,32 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>546000</v>
+      </c>
+      <c r="E46" s="3">
         <v>619500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>534700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>647600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>221800</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2123,8 +2225,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2164,29 +2269,32 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>116200</v>
+      </c>
+      <c r="E48" s="3">
         <v>104000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>64700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>55400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>48500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>44600</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2205,29 +2313,32 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2200</v>
-      </c>
-      <c r="F49" s="3">
-        <v>2300</v>
       </c>
       <c r="G49" s="3">
         <v>2300</v>
       </c>
       <c r="H49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I49" s="3">
         <v>2400</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2246,8 +2357,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2287,8 +2401,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2328,29 +2445,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8700</v>
+        <v>8300</v>
       </c>
       <c r="E52" s="3">
         <v>8700</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>8700</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,8 +2489,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2410,29 +2533,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>672500</v>
+      </c>
+      <c r="E54" s="3">
         <v>734300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>610300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>658600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>698600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>271900</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2451,8 +2577,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2468,8 +2597,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2485,29 +2615,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E57" s="3">
         <v>4200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2526,8 +2657,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2541,14 +2675,14 @@
         <v>100</v>
       </c>
       <c r="G58" s="3">
+        <v>100</v>
+      </c>
+      <c r="H58" s="3">
         <v>3100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2567,29 +2701,32 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>93400</v>
+      </c>
+      <c r="E59" s="3">
         <v>81500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>43700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>36500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>23200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>21600</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2608,29 +2745,32 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>96700</v>
+      </c>
+      <c r="E60" s="3">
         <v>85700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>46700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>42900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>29500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>26900</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,8 +2789,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2661,17 +2804,17 @@
         <v>600</v>
       </c>
       <c r="F61" s="3">
+        <v>600</v>
+      </c>
+      <c r="G61" s="3">
         <v>700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>10300</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2690,29 +2833,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>137700</v>
+      </c>
+      <c r="E62" s="3">
         <v>154400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>20100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>16000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>19500</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2731,8 +2877,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2772,8 +2921,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2813,8 +2965,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2854,29 +3009,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>234900</v>
+      </c>
+      <c r="E66" s="3">
         <v>240800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>67400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>59600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>55900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>56700</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2895,8 +3053,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2912,8 +3073,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2953,8 +3115,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2994,8 +3159,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3012,11 +3180,11 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>448300</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -3035,8 +3203,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3076,29 +3247,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-521600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-456100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-400100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-335100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-287700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-244300</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3117,8 +3291,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3158,8 +3335,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3199,8 +3379,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3240,29 +3423,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>437600</v>
+      </c>
+      <c r="E76" s="3">
         <v>493600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>542900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>599000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>642700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-233000</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3281,8 +3467,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3322,37 +3511,40 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3368,32 +3560,35 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-65600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-56000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-64900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-47400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-43400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-30700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-18900</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3409,8 +3604,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3426,8 +3624,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3435,20 +3634,20 @@
         <v>2800</v>
       </c>
       <c r="E83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F83" s="3">
         <v>2200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1400</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3467,8 +3666,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3508,8 +3710,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3549,8 +3754,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3590,8 +3798,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3631,8 +3842,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3672,29 +3886,32 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-61600</v>
+      </c>
+      <c r="E89" s="3">
         <v>77400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-61200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-33000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-33700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-30800</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3713,8 +3930,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3730,29 +3950,30 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19400</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3771,8 +3992,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3812,8 +4036,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3853,29 +4080,32 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E94" s="3">
         <v>143300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-52200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-193900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-19400</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3894,8 +4124,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3911,8 +4144,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3952,8 +4186,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3993,8 +4230,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4034,8 +4274,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4075,29 +4318,32 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E100" s="3">
         <v>2100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>463700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2100</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4116,8 +4362,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4157,29 +4406,32 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E102" s="3">
         <v>222800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-109600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-238000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>423800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-48000</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4196,6 +4448,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RXRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RXRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="92">
   <si>
     <t>RXRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,55 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -728,19 +729,22 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E8" s="3">
         <v>7700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5300</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2500</v>
       </c>
       <c r="G8" s="3">
         <v>2500</v>
@@ -749,14 +753,14 @@
         <v>2500</v>
       </c>
       <c r="I8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J8" s="3">
         <v>2600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -772,20 +776,23 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E9" s="3">
         <v>14200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7800</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -816,20 +823,23 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E10" s="3">
         <v>-6500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-2500</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -860,8 +870,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,35 +891,36 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E12" s="3">
         <v>38400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>32400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>46000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>33200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>29500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>24000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>13200</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -922,8 +936,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,26 +983,29 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>800</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1001,8 +1021,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1010,8 +1030,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1033,8 +1056,8 @@
       <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+      <c r="J15" s="3">
+        <v>100</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -1054,8 +1077,11 @@
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,35 +1095,36 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>75700</v>
+      </c>
+      <c r="E17" s="3">
         <v>73900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>61300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>67500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>49800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>43500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>33000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18400</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1113,35 +1140,38 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-66200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-56000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-65000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-47300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-41000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-30400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-18200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1157,8 +1187,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,19 +1208,20 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
@@ -1196,14 +1230,14 @@
         <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1219,32 +1253,35 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-62800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-53200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-62700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-44800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-38600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-29100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,8 +1300,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1274,24 +1314,24 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1307,35 +1347,38 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-60400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-65600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-56000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-64900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-47400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-43400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-30700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-18900</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1351,8 +1394,11 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1395,8 +1441,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,35 +1488,38 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-60400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-65600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-56000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-64900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-47400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-43400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-30700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-18900</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1483,35 +1535,38 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-60400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-65600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-56000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-64900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-47400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-43400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-30700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-18900</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1527,8 +1582,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1629,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1615,8 +1676,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1659,8 +1723,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1703,19 +1770,22 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
@@ -1724,14 +1794,14 @@
         <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1747,35 +1817,38 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-60400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-65600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-56000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-64900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-47400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-43400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-30700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-18900</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1791,8 +1864,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1835,35 +1911,38 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-60400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-65600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-56000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-64900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-47400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-43400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-30700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-18900</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,40 +1958,43 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1928,8 +2010,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,8 +2031,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1964,32 +2050,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>454600</v>
+      </c>
+      <c r="E41" s="3">
         <v>453900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>507900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>285100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>394700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>632700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>214100</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2008,26 +2095,29 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>61600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>83200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>231400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>184200</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,8 +2133,8 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2052,32 +2142,35 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E43" s="3">
         <v>11700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2300</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,8 +2189,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2140,32 +2236,35 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E45" s="3">
         <v>18900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7700</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2184,32 +2283,35 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>481600</v>
+      </c>
+      <c r="E46" s="3">
         <v>546000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>619500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>534700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>647600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>221800</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2228,8 +2330,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2272,32 +2377,35 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>119500</v>
+      </c>
+      <c r="E48" s="3">
         <v>116200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>104000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>64700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>55400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>48500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>44600</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2316,32 +2424,35 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E49" s="3">
         <v>2000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>2300</v>
       </c>
       <c r="H49" s="3">
         <v>2300</v>
       </c>
       <c r="I49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J49" s="3">
         <v>2400</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2360,8 +2471,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2518,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2448,32 +2565,35 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E52" s="3">
         <v>8300</v>
-      </c>
-      <c r="E52" s="3">
-        <v>8700</v>
       </c>
       <c r="F52" s="3">
         <v>8700</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>8700</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,8 +2612,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2536,32 +2659,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>611500</v>
+      </c>
+      <c r="E54" s="3">
         <v>672500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>734300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>610300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>658600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>698600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>271900</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2580,8 +2706,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2727,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2616,32 +2746,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E57" s="3">
         <v>3200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2660,8 +2791,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2678,14 +2812,14 @@
         <v>100</v>
       </c>
       <c r="H58" s="3">
+        <v>100</v>
+      </c>
+      <c r="I58" s="3">
         <v>3100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,32 +2838,35 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>79100</v>
+      </c>
+      <c r="E59" s="3">
         <v>93400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>81500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>43700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>36500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>23200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>21600</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2748,32 +2885,35 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E60" s="3">
         <v>96700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>85700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>46700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>42900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>29500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>26900</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2792,8 +2932,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2807,17 +2950,17 @@
         <v>600</v>
       </c>
       <c r="G61" s="3">
+        <v>600</v>
+      </c>
+      <c r="H61" s="3">
         <v>700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>10300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2836,32 +2979,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>139900</v>
+      </c>
+      <c r="E62" s="3">
         <v>137700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>154400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>20100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>19500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2880,8 +3026,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +3073,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,8 +3120,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3012,32 +3167,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>223500</v>
+      </c>
+      <c r="E66" s="3">
         <v>234900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>240800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>67400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>59600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>55900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>56700</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3214,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3074,8 +3235,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3118,8 +3280,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3162,8 +3327,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3183,11 +3351,11 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>448300</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3206,8 +3374,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3250,32 +3421,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-582100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-521600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-456100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-400100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-335100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-287700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-244300</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3294,8 +3468,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3338,8 +3515,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +3562,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3426,32 +3609,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>388000</v>
+      </c>
+      <c r="E76" s="3">
         <v>437600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>493600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>542900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>599000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>642700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-233000</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3470,8 +3656,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3514,40 +3703,43 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3563,35 +3755,38 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-60400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-65600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-56000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-64900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-47400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-43400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-30700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-18900</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3607,8 +3802,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,32 +3823,33 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="E83" s="3">
         <v>2800</v>
       </c>
       <c r="F83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G83" s="3">
         <v>2200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1400</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3669,8 +3868,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3713,8 +3915,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3757,8 +3962,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3801,8 +4009,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3845,8 +4056,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3889,32 +4103,35 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-54500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-61600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>77400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-61200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-33000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-33700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-30800</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3933,8 +4150,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3951,32 +4171,33 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-16500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19400</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3995,8 +4216,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,8 +4263,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4083,32 +4310,35 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E94" s="3">
         <v>4900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>143300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-52200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-193900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-19400</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4127,8 +4357,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4145,8 +4378,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4189,8 +4423,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4470,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4277,8 +4517,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,32 +4564,35 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E100" s="3">
         <v>2700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-11100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>463700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2100</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4365,8 +4611,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4409,32 +4658,35 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-54000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>222800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-109600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-238000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>423800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-48000</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4451,6 +4703,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RXRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RXRX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,58 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -732,22 +732,25 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E8" s="3">
         <v>13200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5300</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2500</v>
       </c>
       <c r="H8" s="3">
         <v>2500</v>
@@ -756,14 +759,14 @@
         <v>2500</v>
       </c>
       <c r="J8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K8" s="3">
         <v>2600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -779,23 +782,26 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E9" s="3">
         <v>15400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7800</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -826,23 +832,26 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E10" s="3">
         <v>-2200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-6500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-2500</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -873,8 +882,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,38 +904,39 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E12" s="3">
         <v>40800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>38400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>32400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>46000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>33200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>29500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>24000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>13200</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -939,8 +952,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,8 +1002,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -995,20 +1014,20 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>2800</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>800</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1024,8 +1043,8 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1033,13 +1052,16 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -1059,8 +1081,8 @@
       <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
+      <c r="K15" s="3">
+        <v>100</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
@@ -1080,8 +1102,11 @@
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,38 +1121,39 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>74700</v>
+      </c>
+      <c r="E17" s="3">
         <v>75700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>73900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>61300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>67500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>49800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>43500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>33000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18400</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,38 +1169,41 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-62500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-66200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-56000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-65000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-47300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-41000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-30400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-18200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1190,8 +1219,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,22 +1241,23 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E20" s="3">
         <v>2100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
@@ -1233,14 +1266,14 @@
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,35 +1289,38 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-54300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-57400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-62800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-53200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-62700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-44800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-38600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-29100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1303,8 +1339,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1317,24 +1356,24 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1350,38 +1389,41 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-57500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-60400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-65600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-56000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-64900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-47400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-43400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-30700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-18900</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1397,8 +1439,11 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1444,8 +1489,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,38 +1539,41 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-57500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-60400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-65600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-56000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-64900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-47400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-43400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-30700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-18900</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1538,38 +1589,41 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-57500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-60400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-65600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-56000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-64900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-47400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-43400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-30700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18900</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1585,8 +1639,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1689,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1739,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1789,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,22 +1839,25 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
@@ -1797,14 +1866,14 @@
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1820,38 +1889,41 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-57500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-60400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-65600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-56000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-64900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-47400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-43400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-30700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18900</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,8 +1939,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,38 +1989,41 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-57500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-60400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-65600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-56000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-64900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-47400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-43400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-30700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18900</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1961,43 +2039,46 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2013,8 +2094,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2116,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,35 +2136,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>549900</v>
+      </c>
+      <c r="E41" s="3">
         <v>454600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>453900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>507900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>285100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>394700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>632700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>214100</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2184,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2107,20 +2196,20 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>61600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>83200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>231400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>184200</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2136,8 +2225,8 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2145,35 +2234,38 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E43" s="3">
         <v>11600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2300</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,8 +2284,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2239,35 +2334,38 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E45" s="3">
         <v>15300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7700</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,35 +2384,38 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>569800</v>
+      </c>
+      <c r="E46" s="3">
         <v>481600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>546000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>619500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>534700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>600900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>647600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>221800</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,8 +2434,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2380,35 +2484,38 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>121400</v>
+      </c>
+      <c r="E48" s="3">
         <v>119500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>116200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>104000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>64700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>55400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>48500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>44600</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2427,35 +2534,38 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E49" s="3">
         <v>2300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2200</v>
-      </c>
-      <c r="H49" s="3">
-        <v>2300</v>
       </c>
       <c r="I49" s="3">
         <v>2300</v>
       </c>
       <c r="J49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K49" s="3">
         <v>2400</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2474,8 +2584,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2634,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,35 +2684,38 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E52" s="3">
         <v>8200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8300</v>
-      </c>
-      <c r="F52" s="3">
-        <v>8700</v>
       </c>
       <c r="G52" s="3">
         <v>8700</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>8700</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2615,8 +2734,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,35 +2784,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>701300</v>
+      </c>
+      <c r="E54" s="3">
         <v>611500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>672500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>734300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>610300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>658600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>698600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>271900</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2709,8 +2834,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2856,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,35 +2876,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E57" s="3">
         <v>3900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,8 +2924,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2815,14 +2948,14 @@
         <v>100</v>
       </c>
       <c r="I58" s="3">
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
         <v>3100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,35 +2974,38 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>95600</v>
+      </c>
+      <c r="E59" s="3">
         <v>79100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>93400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>81500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>43700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>36500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>23200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21600</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2888,35 +3024,38 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100300</v>
+      </c>
+      <c r="E60" s="3">
         <v>83000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>96700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>85700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>46700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>42900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>29500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>26900</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2935,13 +3074,16 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E61" s="3">
         <v>600</v>
@@ -2953,17 +3095,17 @@
         <v>600</v>
       </c>
       <c r="H61" s="3">
+        <v>600</v>
+      </c>
+      <c r="I61" s="3">
         <v>700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2982,35 +3124,38 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>114700</v>
+      </c>
+      <c r="E62" s="3">
         <v>139900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>137700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>154400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>20100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>19500</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,8 +3174,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3224,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3274,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,35 +3324,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>215500</v>
+      </c>
+      <c r="E66" s="3">
         <v>223500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>234900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>240800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>67400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>59600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>55900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>56700</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3217,8 +3374,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3396,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3444,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3494,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3354,11 +3521,11 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>448300</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3377,8 +3544,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,35 +3594,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-639600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-582100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-521600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-456100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-400100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-335100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-287700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-244300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3644,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3694,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3744,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,35 +3794,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>485800</v>
+      </c>
+      <c r="E76" s="3">
         <v>388000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>437600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>493600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>542900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>599000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>642700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-233000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3659,8 +3844,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,43 +3894,46 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3758,38 +3949,41 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-57500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-60400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-65600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-56000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-64900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-47400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-43400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-30700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18900</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3805,8 +3999,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,35 +4021,36 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E83" s="3">
         <v>3000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>2800</v>
       </c>
       <c r="F83" s="3">
         <v>2800</v>
       </c>
       <c r="G83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H83" s="3">
         <v>2200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1400</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3871,8 +4069,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4119,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4169,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4219,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4269,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,35 +4319,38 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-54500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-61600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>77400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-61200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-33000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-33700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-30800</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4153,8 +4369,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,35 +4391,36 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-16500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-19400</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4219,8 +4439,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4489,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,35 +4539,38 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E94" s="3">
         <v>53000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>4900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>143300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-52200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-193900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-19400</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4360,8 +4589,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4611,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4426,8 +4659,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4709,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +4759,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,35 +4809,38 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>147300</v>
+      </c>
+      <c r="E100" s="3">
         <v>2300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-11100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>463700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4614,8 +4859,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4661,35 +4909,38 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>94200</v>
+      </c>
+      <c r="E102" s="3">
         <v>800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-54000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>222800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-109600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-238000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>423800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-48000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4706,6 +4957,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RXRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RXRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="92">
   <si>
     <t>RXRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,62 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -735,25 +736,28 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E8" s="3">
         <v>13700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5300</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2500</v>
       </c>
       <c r="I8" s="3">
         <v>2500</v>
@@ -762,14 +766,14 @@
         <v>2500</v>
       </c>
       <c r="K8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L8" s="3">
         <v>2600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -785,26 +789,29 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E9" s="3">
         <v>10800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>14200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7800</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -835,26 +842,29 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E10" s="3">
         <v>2900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-2200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-6500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-2500</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -885,8 +895,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -905,41 +918,42 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E12" s="3">
         <v>40300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>40800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>38400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>32400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>46000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>33200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>29500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>24000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>13200</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -955,8 +969,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1005,32 +1022,35 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>2800</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>800</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1046,8 +1066,8 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1055,8 +1075,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1064,7 +1087,7 @@
         <v>200</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
@@ -1084,8 +1107,8 @@
       <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
+      <c r="L15" s="3">
+        <v>100</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
@@ -1105,8 +1128,11 @@
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1122,41 +1148,42 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E17" s="3">
         <v>74700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>75700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>73900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>61300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>67500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>49800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>43500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>33000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18400</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1172,41 +1199,44 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-69900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-61000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-62500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-66200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-56000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-65000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-47300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-41000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-30400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-18200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1222,8 +1252,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1242,25 +1275,26 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E20" s="3">
         <v>3500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
@@ -1269,14 +1303,14 @@
         <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1292,38 +1326,41 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-61600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-54300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-57400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-62800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-53200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-62700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-44800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-38600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-29100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1342,8 +1379,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1359,24 +1399,24 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1392,41 +1432,44 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-65300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-57500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-60400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-65600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-56000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-64900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-47400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-43400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-30700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-18900</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1442,8 +1485,11 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1492,8 +1538,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1542,41 +1591,44 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-65300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-57500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-60400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-65600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-56000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-64900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-47400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-43400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-30700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-18900</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1592,41 +1644,44 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-65300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-57500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-60400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-65600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-56000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-64900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-47400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-43400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-30700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18900</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1642,8 +1697,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1692,8 +1750,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1742,8 +1803,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1792,8 +1856,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1842,25 +1909,28 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
@@ -1869,14 +1939,14 @@
         <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1892,41 +1962,44 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-65300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-57500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-60400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-65600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-56000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-64900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-47400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-43400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-30700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-18900</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1942,8 +2015,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1992,41 +2068,44 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-65300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-57500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-60400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-65600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-56000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-64900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-47400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-43400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-30700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-18900</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2042,46 +2121,49 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2179,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2117,8 +2202,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2137,38 +2223,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>473100</v>
+      </c>
+      <c r="E41" s="3">
         <v>549900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>454600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>453900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>507900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>285100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>394700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>632700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>214100</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,32 +2274,35 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>61600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>83200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>231400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>184200</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2228,8 +2318,8 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2237,38 +2327,41 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E43" s="3">
         <v>2800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2300</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,8 +2380,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2337,38 +2433,41 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E45" s="3">
         <v>17100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7700</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2387,38 +2486,41 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>492100</v>
+      </c>
+      <c r="E46" s="3">
         <v>569800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>481600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>546000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>619500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>534700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>600900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>647600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>221800</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2539,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2487,38 +2592,41 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>125100</v>
+      </c>
+      <c r="E48" s="3">
         <v>121400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>119500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>116200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>104000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>64700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>55400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>48500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>44600</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2537,8 +2645,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2546,29 +2657,29 @@
         <v>2100</v>
       </c>
       <c r="E49" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F49" s="3">
         <v>2300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>2300</v>
       </c>
       <c r="J49" s="3">
         <v>2300</v>
       </c>
       <c r="K49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L49" s="3">
         <v>2400</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2587,8 +2698,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2637,8 +2751,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2687,38 +2804,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E52" s="3">
         <v>7900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8300</v>
-      </c>
-      <c r="G52" s="3">
-        <v>8700</v>
       </c>
       <c r="H52" s="3">
         <v>8700</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>8700</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2857,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2787,38 +2910,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>627400</v>
+      </c>
+      <c r="E54" s="3">
         <v>701300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>611500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>672500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>734300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>610300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>658600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>698600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>271900</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2837,8 +2963,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2857,8 +2986,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2877,38 +3007,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E57" s="3">
         <v>4600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2927,13 +3058,16 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -2951,14 +3085,14 @@
         <v>100</v>
       </c>
       <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
         <v>3100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2977,38 +3111,41 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>87200</v>
+      </c>
+      <c r="E59" s="3">
         <v>95600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>79100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>93400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>81500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>43700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>36500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>23200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21600</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3027,38 +3164,41 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>92200</v>
+      </c>
+      <c r="E60" s="3">
         <v>100300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>83000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>96700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>85700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>46700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>42900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>29500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>26900</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3077,16 +3217,19 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E61" s="3">
         <v>500</v>
-      </c>
-      <c r="E61" s="3">
-        <v>600</v>
       </c>
       <c r="F61" s="3">
         <v>600</v>
@@ -3098,17 +3241,17 @@
         <v>600</v>
       </c>
       <c r="I61" s="3">
+        <v>600</v>
+      </c>
+      <c r="J61" s="3">
         <v>700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3127,38 +3270,41 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>103900</v>
+      </c>
+      <c r="E62" s="3">
         <v>114700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>139900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>137700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>154400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>20100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>19500</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3177,8 +3323,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3227,8 +3376,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3277,8 +3429,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3327,38 +3482,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>197200</v>
+      </c>
+      <c r="E66" s="3">
         <v>215500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>223500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>234900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>240800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>67400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>59600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>55900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>56700</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3377,8 +3535,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3397,8 +3558,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3447,8 +3609,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3497,8 +3662,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3524,11 +3692,11 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>448300</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3547,8 +3715,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3597,38 +3768,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-704900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-639600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-582100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-521600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-456100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-400100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-335100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-287700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-244300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3647,8 +3821,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3697,8 +3874,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3747,8 +3927,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3797,38 +3980,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>430200</v>
+      </c>
+      <c r="E76" s="3">
         <v>485800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>388000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>437600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>493600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>542900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>599000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>642700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-233000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3847,8 +4033,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3897,46 +4086,49 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3952,41 +4144,44 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-65300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-57500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-60400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-65600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-56000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-64900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-47400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-43400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-30700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-18900</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4002,8 +4197,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4022,38 +4220,39 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E83" s="3">
         <v>3200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>2800</v>
       </c>
       <c r="G83" s="3">
         <v>2800</v>
       </c>
       <c r="H83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I83" s="3">
         <v>2200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1400</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4072,8 +4271,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4122,8 +4324,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4172,8 +4377,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4222,8 +4430,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4272,8 +4483,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4322,38 +4536,41 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-73300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-44700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-54500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-61600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>77400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-61200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-33000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-33700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-30800</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4372,8 +4589,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4392,38 +4612,39 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-16500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19400</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4442,8 +4663,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4492,8 +4716,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4542,38 +4769,41 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>53000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>4900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>143300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-52200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-193900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-19400</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4592,8 +4822,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4612,8 +4845,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4662,8 +4896,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4712,8 +4949,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4762,8 +5002,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4812,38 +5055,41 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E100" s="3">
         <v>147300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-11100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>463700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4862,31 +5108,34 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4912,38 +5161,41 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-76700</v>
+      </c>
+      <c r="E102" s="3">
         <v>94200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-54000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>222800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-109600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-238000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>423800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-48000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4960,6 +5212,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RXRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RXRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="92">
   <si>
     <t>RXRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -739,28 +740,31 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E8" s="3">
         <v>12100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5300</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2500</v>
       </c>
       <c r="J8" s="3">
         <v>2500</v>
@@ -769,14 +773,14 @@
         <v>2500</v>
       </c>
       <c r="L8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M8" s="3">
         <v>2600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
@@ -792,29 +796,32 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E9" s="3">
         <v>12400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>14200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7800</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -845,29 +852,32 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E10" s="3">
         <v>-300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-2200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-6500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-2500</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -898,8 +908,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -919,44 +932,45 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>53500</v>
+      </c>
+      <c r="E12" s="3">
         <v>46500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>40300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>40800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>38400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>32400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>46000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>33200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>29500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>24000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>13200</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -972,8 +986,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1025,35 +1042,38 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>1200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>2800</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>800</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1069,8 +1089,8 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1078,19 +1098,22 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>200</v>
+        <v>1600</v>
       </c>
       <c r="E15" s="3">
         <v>200</v>
       </c>
       <c r="F15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
@@ -1110,8 +1133,8 @@
       <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
+      <c r="M15" s="3">
+        <v>100</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
@@ -1131,8 +1154,11 @@
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1149,44 +1175,45 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>92700</v>
+      </c>
+      <c r="E17" s="3">
         <v>82000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>74700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>75700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>73900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>61300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>67500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>49800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>43500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>33000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18400</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1202,44 +1229,47 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-81700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-69900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-61000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-62500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-66200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-56000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-65000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-47300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-41000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-30400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-18200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1255,8 +1285,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1276,28 +1309,29 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E20" s="3">
         <v>4600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
@@ -1306,14 +1340,14 @@
         <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1329,41 +1363,44 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-71200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-61600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-54300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-57400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-62800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-53200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-62700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-44800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-38600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-29100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1382,8 +1419,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1402,24 +1442,24 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1435,44 +1475,47 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-76700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-65300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-57500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-60400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-65600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-56000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-64900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-47400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-43400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-30700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-18900</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1488,8 +1531,11 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1541,8 +1587,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1594,44 +1643,47 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-76700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-65300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-57500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-60400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-65600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-56000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-64900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-47400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-43400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-30700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-18900</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1647,44 +1699,47 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-76700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-65300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-57500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-60400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-65600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-56000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-64900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-47400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-43400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-30700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-18900</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1700,8 +1755,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1753,8 +1811,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1806,8 +1867,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1859,8 +1923,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1912,28 +1979,31 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
@@ -1942,14 +2012,14 @@
         <v>-100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1965,44 +2035,47 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-76700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-65300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-57500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-60400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-65600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-56000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-64900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-47400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-43400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-30700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-18900</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2018,8 +2091,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2071,44 +2147,47 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-76700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-65300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-57500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-60400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-65600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-56000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-64900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-47400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-43400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-30700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-18900</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,49 +2203,52 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2182,8 +2264,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2203,8 +2288,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2224,41 +2310,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>405900</v>
+      </c>
+      <c r="E41" s="3">
         <v>473100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>549900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>454600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>453900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>507900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>285100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>394700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>632700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>214100</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2277,35 +2364,38 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>61600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>83200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>231400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>184200</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2321,8 +2411,8 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2330,41 +2420,44 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E43" s="3">
         <v>2100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2300</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2383,8 +2476,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2436,41 +2532,44 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E45" s="3">
         <v>16900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7700</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2489,41 +2588,44 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>431000</v>
+      </c>
+      <c r="E46" s="3">
         <v>492100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>569800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>481600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>546000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>619500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>534700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>647600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>221800</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2542,8 +2644,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2595,41 +2700,44 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>124700</v>
+      </c>
+      <c r="E48" s="3">
         <v>125100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>121400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>119500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>116200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>104000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>64700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>55400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>48500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>44600</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,41 +2756,44 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2100</v>
+        <v>103300</v>
       </c>
       <c r="E49" s="3">
         <v>2100</v>
       </c>
       <c r="F49" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G49" s="3">
         <v>2300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2200</v>
-      </c>
-      <c r="J49" s="3">
-        <v>2300</v>
       </c>
       <c r="K49" s="3">
         <v>2300</v>
       </c>
       <c r="L49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M49" s="3">
         <v>2400</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2701,8 +2812,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2754,8 +2868,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2807,41 +2924,44 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E52" s="3">
         <v>8000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8300</v>
-      </c>
-      <c r="H52" s="3">
-        <v>8700</v>
       </c>
       <c r="I52" s="3">
         <v>8700</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>8700</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2860,8 +2980,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2913,41 +3036,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>666700</v>
+      </c>
+      <c r="E54" s="3">
         <v>627400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>701300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>611500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>672500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>734300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>610300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>658600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>698600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>271900</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2966,8 +3092,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2987,8 +3116,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3008,41 +3138,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
         <v>4200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3061,8 +3192,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3070,7 +3204,7 @@
         <v>700</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -3088,14 +3222,14 @@
         <v>100</v>
       </c>
       <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
         <v>3100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3114,41 +3248,44 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>111200</v>
+      </c>
+      <c r="E59" s="3">
         <v>87200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>95600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>79100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>93400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>81500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>43700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>36500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>21600</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3167,41 +3304,44 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E60" s="3">
         <v>92200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>100300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>83000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>96700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>85700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>46700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>42900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>26900</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,8 +3360,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3229,10 +3372,10 @@
         <v>1200</v>
       </c>
       <c r="E61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F61" s="3">
         <v>500</v>
-      </c>
-      <c r="F61" s="3">
-        <v>600</v>
       </c>
       <c r="G61" s="3">
         <v>600</v>
@@ -3244,17 +3387,17 @@
         <v>600</v>
       </c>
       <c r="J61" s="3">
+        <v>600</v>
+      </c>
+      <c r="K61" s="3">
         <v>700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10300</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3273,41 +3416,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>82600</v>
+      </c>
+      <c r="E62" s="3">
         <v>103900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>114700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>139900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>137700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>154400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>20100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>19500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3326,8 +3472,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3379,8 +3528,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3432,8 +3584,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3485,41 +3640,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>197700</v>
+      </c>
+      <c r="E66" s="3">
         <v>197200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>215500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>223500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>234900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>240800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>67400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>59600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>55900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>56700</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3538,8 +3696,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3559,8 +3720,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3612,8 +3774,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3665,8 +3830,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3695,11 +3863,11 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>448300</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3718,8 +3886,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3771,41 +3942,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-781600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-704900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-639600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-582100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-521600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-456100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-400100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-335100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-287700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-244300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3824,8 +3998,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3877,8 +4054,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3930,8 +4110,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3983,41 +4166,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>469000</v>
+      </c>
+      <c r="E76" s="3">
         <v>430200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>485800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>388000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>437600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>493600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>542900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>599000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>642700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-233000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4036,8 +4222,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4089,49 +4278,52 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4147,44 +4339,47 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-76700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-65300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-57500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-60400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-65600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-56000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-64900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-47400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-43400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-30700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-18900</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4200,8 +4395,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4221,41 +4419,42 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E83" s="3">
         <v>3700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>2800</v>
       </c>
       <c r="H83" s="3">
         <v>2800</v>
       </c>
       <c r="I83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J83" s="3">
         <v>2200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1400</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4274,8 +4473,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4327,8 +4529,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4380,8 +4585,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4433,8 +4641,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4486,8 +4697,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4539,41 +4753,44 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-67500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-73300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-44700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-54500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-61600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>77400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-61200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-33000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-33700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-30800</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4592,8 +4809,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4613,41 +4833,42 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-16500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19400</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4666,8 +4887,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4719,8 +4943,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4772,41 +4999,44 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>53000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>4900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>143300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-52200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-193900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-19400</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4825,8 +5055,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4846,8 +5079,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4899,8 +5133,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4952,8 +5189,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5005,8 +5245,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5058,41 +5301,44 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E100" s="3">
         <v>1900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>147300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-11100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>463700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5111,16 +5357,19 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
@@ -5137,8 +5386,8 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -5164,41 +5413,44 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-65600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-76700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>94200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-54000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>222800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-109600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-238000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>423800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-48000</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5215,6 +5467,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RXRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RXRX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,70 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -743,31 +744,34 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E8" s="3">
         <v>11000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5300</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2500</v>
       </c>
       <c r="K8" s="3">
         <v>2500</v>
@@ -776,14 +780,14 @@
         <v>2500</v>
       </c>
       <c r="M8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N8" s="3">
         <v>2600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
@@ -799,32 +803,35 @@
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E9" s="3">
         <v>9400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>15400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>14200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7800</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -855,32 +862,35 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-2200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-6500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-2500</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -911,8 +921,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -933,47 +946,48 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E12" s="3">
         <v>53500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>46500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>40300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>40800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>38400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>32400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>46000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>33200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>29500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>24000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>13200</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -989,8 +1003,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1045,38 +1062,41 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>2800</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>800</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,8 +1112,8 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1101,22 +1121,25 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E15" s="3">
         <v>1600</v>
-      </c>
-      <c r="E15" s="3">
-        <v>200</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
       </c>
       <c r="G15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
@@ -1136,8 +1159,8 @@
       <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
+      <c r="N15" s="3">
+        <v>100</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
@@ -1157,8 +1180,11 @@
       <c r="T15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1176,47 +1202,48 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>110100</v>
+      </c>
+      <c r="E17" s="3">
         <v>92700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>82000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>74700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>75700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>73900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>61300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>67500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>49800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>43500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>33000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18400</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1232,47 +1259,50 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-99600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-81700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-69900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-61000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-62500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-66200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-56000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-65000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-47300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-41000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-30400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-18200</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1288,8 +1318,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1310,31 +1343,32 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E20" s="3">
         <v>5000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
@@ -1343,14 +1377,14 @@
         <v>100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1366,44 +1400,47 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-85400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-71200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-61600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-54300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-57400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-62800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-53200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-62700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-44800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-38600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-29100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1422,8 +1459,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1445,24 +1485,24 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1478,47 +1518,50 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-93000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-76700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-65300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-57500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-60400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-65600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-56000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-64900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-47400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-43400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-30700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-18900</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1534,8 +1577,11 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1590,8 +1636,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1646,47 +1695,50 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-93000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-76700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-65300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-57500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-60400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-65600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-56000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-64900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-47400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-43400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-30700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-18900</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1702,47 +1754,50 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-93000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-76700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-65300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-57500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-60400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-65600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-56000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-64900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-47400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-43400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-30700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-18900</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1758,8 +1813,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1814,8 +1872,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1870,8 +1931,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1926,8 +1990,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1982,31 +2049,34 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
@@ -2015,14 +2085,14 @@
         <v>-100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2038,47 +2108,50 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-93000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-76700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-65300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-57500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-60400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-65600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-56000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-64900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-47400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-43400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-30700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-18900</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2094,8 +2167,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2150,47 +2226,50 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-93000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-76700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-65300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-57500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-60400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-65600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-56000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-64900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-47400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-43400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-30700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-18900</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2206,52 +2285,55 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2267,8 +2349,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2289,8 +2374,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2311,44 +2397,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>387300</v>
+      </c>
+      <c r="E41" s="3">
         <v>405900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>473100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>549900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>454600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>453900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>507900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>285100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>394700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>632700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>214100</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2367,8 +2454,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2378,27 +2468,27 @@
       <c r="E42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>61600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>83200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>231400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>184200</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2504,8 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2423,44 +2513,47 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E43" s="3">
         <v>3100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2300</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2479,8 +2572,11 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2535,44 +2631,47 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E45" s="3">
         <v>22100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>17000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7700</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2591,44 +2690,47 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>410500</v>
+      </c>
+      <c r="E46" s="3">
         <v>431000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>492100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>569800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>481600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>546000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>619500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>534700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>600900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>647600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>221800</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2647,8 +2749,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2703,44 +2808,47 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>120300</v>
+      </c>
+      <c r="E48" s="3">
         <v>124700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>125100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>121400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>119500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>116200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>104000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>64700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>55400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>48500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>44600</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2759,44 +2867,47 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>92200</v>
+      </c>
+      <c r="E49" s="3">
         <v>103300</v>
-      </c>
-      <c r="E49" s="3">
-        <v>2100</v>
       </c>
       <c r="F49" s="3">
         <v>2100</v>
       </c>
       <c r="G49" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H49" s="3">
         <v>2300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2200</v>
-      </c>
-      <c r="K49" s="3">
-        <v>2300</v>
       </c>
       <c r="L49" s="3">
         <v>2300</v>
       </c>
       <c r="M49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N49" s="3">
         <v>2400</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2815,8 +2926,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2871,8 +2985,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2927,44 +3044,47 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E52" s="3">
         <v>7700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8300</v>
-      </c>
-      <c r="I52" s="3">
-        <v>8700</v>
       </c>
       <c r="J52" s="3">
         <v>8700</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>8700</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2983,8 +3103,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3039,44 +3162,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>630800</v>
+      </c>
+      <c r="E54" s="3">
         <v>666700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>627400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>701300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>611500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>672500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>734300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>610300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>658600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>698600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>271900</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3221,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3117,8 +3246,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3139,44 +3269,45 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E57" s="3">
         <v>2100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3195,8 +3326,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3207,7 +3341,7 @@
         <v>700</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -3225,14 +3359,14 @@
         <v>100</v>
       </c>
       <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
         <v>3100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3251,44 +3385,47 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>89200</v>
+      </c>
+      <c r="E59" s="3">
         <v>111200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>87200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>95600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>79100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>93400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>81500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>43700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>36500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>23200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>21600</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3307,44 +3444,47 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>94100</v>
+      </c>
+      <c r="E60" s="3">
         <v>114000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>92200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>100300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>83000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>96700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>85700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>46700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>42900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>29500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>26900</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3363,22 +3503,25 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E61" s="3">
         <v>1200</v>
       </c>
       <c r="F61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G61" s="3">
         <v>500</v>
-      </c>
-      <c r="G61" s="3">
-        <v>600</v>
       </c>
       <c r="H61" s="3">
         <v>600</v>
@@ -3390,17 +3533,17 @@
         <v>600</v>
       </c>
       <c r="K61" s="3">
+        <v>600</v>
+      </c>
+      <c r="L61" s="3">
         <v>700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3419,44 +3562,47 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>97600</v>
+      </c>
+      <c r="E62" s="3">
         <v>82600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>103900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>114700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>139900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>137700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>154400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>20100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>19500</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3475,8 +3621,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3531,8 +3680,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3587,8 +3739,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3643,44 +3798,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>192900</v>
+      </c>
+      <c r="E66" s="3">
         <v>197700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>197200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>215500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>223500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>234900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>240800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>67400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>59600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>55900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>56700</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3699,8 +3857,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3721,8 +3882,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3777,8 +3939,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3833,8 +3998,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3866,11 +4034,11 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>448300</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3889,8 +4057,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3945,44 +4116,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-874600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-781600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-704900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-639600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-582100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-521600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-456100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-400100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-335100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-287700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-244300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4001,8 +4175,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4057,8 +4234,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4113,8 +4293,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4169,44 +4352,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>438000</v>
+      </c>
+      <c r="E76" s="3">
         <v>469000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>430200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>485800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>388000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>437600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>493600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>542900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>599000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>642700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-233000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4225,8 +4411,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4281,52 +4470,55 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4342,47 +4534,50 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-93000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-76700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-65300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-57500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-60400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-65600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-56000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-64900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-47400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-43400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-30700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-18900</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4398,8 +4593,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4420,44 +4618,45 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E83" s="3">
         <v>5500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>2800</v>
       </c>
       <c r="I83" s="3">
         <v>2800</v>
       </c>
       <c r="J83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K83" s="3">
         <v>2200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1400</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4476,8 +4675,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4532,8 +4734,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4588,8 +4793,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4644,8 +4852,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4700,8 +4911,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4756,44 +4970,47 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-72900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-67500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-73300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-44700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-54500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-61600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>77400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-61200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-33000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-33700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-30800</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4812,8 +5029,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4834,44 +5054,45 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-16500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19400</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4890,8 +5111,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4946,8 +5170,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5002,44 +5229,47 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>53000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>4900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>143300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-52200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-193900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-19400</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5058,8 +5288,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5080,8 +5313,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5136,8 +5370,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5192,8 +5429,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5248,8 +5488,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5304,44 +5547,47 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E100" s="3">
         <v>3800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>147300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-11100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>463700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5360,19 +5606,22 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -5389,8 +5638,8 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -5416,44 +5665,47 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-65600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-76700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>94200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-54000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>222800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-109600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-238000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>423800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-48000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5470,6 +5722,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
